--- a/outputs/01-RCT/tablas/tab_3_bal_tab.xlsx
+++ b/outputs/01-RCT/tablas/tab_3_bal_tab.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,210 +13,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="198" uniqueCount="99">
   <si>
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
     <t>Attrition</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Household head's child</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Girl</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Yers family in village</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Farsi</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Taijik</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Farmers</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Age of household head</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Years of education of household head</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Number of people in household</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Jeribs of Land</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Number of Sheep</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Distance to nearest formal school (non village-based school)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>The value displayed for t-tests are the differences in the means across the groups.</t>
   </si>
   <si>
     <t>***, **, and * indicate significance at the 1, 5, and 10 percent critical level.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>946</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>833</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>830</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>(1)</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Treatment</t>
   </si>
   <si>
     <t>Mean/SE</t>
@@ -306,126 +174,27 @@
     <t>[0.040]</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>858</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>738</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>734</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>736</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>(2)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
+    <t>Control</t>
   </si>
   <si>
     <t>0.139</t>
   </si>
   <si>
-    <t>[0.012]</t>
-  </si>
-  <si>
     <t>0.912</t>
   </si>
   <si>
@@ -453,21 +222,12 @@
     <t>0.205</t>
   </si>
   <si>
-    <t>[0.015]</t>
-  </si>
-  <si>
     <t>0.202</t>
   </si>
   <si>
-    <t>[0.015]</t>
-  </si>
-  <si>
     <t>0.725</t>
   </si>
   <si>
-    <t>[0.016]</t>
-  </si>
-  <si>
     <t>40.231</t>
   </si>
   <si>
@@ -501,15 +261,6 @@
     <t>3.147</t>
   </si>
   <si>
-    <t>[0.040]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>t-test</t>
   </si>
   <si>
@@ -522,97 +273,49 @@
     <t>0.010</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0.015</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0.022</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2.518***</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0.004</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0.036*</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>-0.017</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>-0.141</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0.403**</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0.860***</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>-0.005</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>3.108***</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>-0.275***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -649,8 +352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -658,659 +364,659 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
-      </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
